--- a/ArcherProject大纲.xlsx
+++ b/ArcherProject大纲.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IssShin\Narrative\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7739AB90-9B17-496A-A542-CD69CCC64A7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A304917C-0588-4571-97B9-D0B88DC3FB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="-675" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7215" yWindow="975" windowWidth="18210" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="时间顺序" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>时间顺序</t>
   </si>
@@ -39,17 +39,6 @@
   </si>
   <si>
     <t>发生事件</t>
-  </si>
-  <si>
-    <t>1942年</t>
-  </si>
-  <si>
-    <t>1942年
-（游戏开头）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-th Year of the Reign of Ravenford II</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -183,8 +172,43 @@
     <t>日记</t>
   </si>
   <si>
-    <t>写作感情
-（虽然无法通过文笔表现，但姑且写出来作为参考）</t>
+    <t>1542年</t>
+  </si>
+  <si>
+    <t>1542年
+（游戏开头）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+th Year of the Reign of Ravenford I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1st Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>摆放位置</t>
+  </si>
+  <si>
+    <t>1：开头右手边的桌子</t>
+  </si>
+  <si>
+    <t>2：弓箭练习场（或者说整个公寓？）前面的墙上</t>
+  </si>
+  <si>
+    <t>写作时间</t>
+  </si>
+  <si>
+    <t>24th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>12th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>以Ego的角度介绍这是哪里，“我”（玩家）是谁，初步提及外国人、Ellis及父亲瑞文福德一世的存在。</t>
+  </si>
+  <si>
+    <t>以施瓦茨为首的瑞文福德学者登场，自此游戏里主要势力初次亮相。施瓦茨提到，学者需要进行有关红色瘟疫（RedDeath）的实验，而这正是大门紧闭的原因。</t>
   </si>
 </sst>
 </file>
@@ -636,15 +660,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45" style="2" customWidth="1"/>
     <col min="4" max="4" width="59.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
@@ -674,83 +698,93 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33">
-      <c r="B7" s="12"/>
+    <row r="7" spans="1:4" ht="41.25" customHeight="1">
+      <c r="B7" s="12">
+        <v>1512</v>
+      </c>
       <c r="C7" s="16" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D7" s="15"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5">
-      <c r="B8" s="12"/>
-      <c r="C8" s="15"/>
+    <row r="8" spans="1:4" ht="41.25" customHeight="1">
+      <c r="B8" s="12">
+        <v>1518</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" ht="16.5">
-      <c r="B9" s="12"/>
-      <c r="C9" s="15"/>
+    <row r="9" spans="1:4" ht="41.25" customHeight="1">
+      <c r="B9" s="12">
+        <v>1530</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5">
+    <row r="10" spans="1:4" ht="41.25" customHeight="1">
       <c r="B10" s="12"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4" ht="16.5">
+    <row r="11" spans="1:4" ht="41.25" customHeight="1">
       <c r="B11" s="12"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
     </row>
-    <row r="12" spans="1:4" ht="16.5">
+    <row r="12" spans="1:4" ht="41.25" customHeight="1">
       <c r="B12" s="12"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:4" ht="16.5">
+    <row r="13" spans="1:4" ht="41.25" customHeight="1">
       <c r="B13" s="12"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="1:4" ht="16.5">
+    <row r="14" spans="1:4" ht="41.25" customHeight="1">
       <c r="B14" s="12"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:4" ht="16.5">
+    <row r="15" spans="1:4" ht="41.25" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5">
+    <row r="16" spans="1:4" ht="41.25" customHeight="1">
       <c r="B16" s="12"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="2:4" ht="16.5">
+    <row r="17" spans="2:4" ht="41.25" customHeight="1">
       <c r="B17" s="12"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="2:4" ht="16.5">
+    <row r="18" spans="2:4" ht="41.25" customHeight="1">
       <c r="B18" s="12"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="2:4" ht="33">
+    <row r="19" spans="2:4" ht="41.25" customHeight="1">
       <c r="B19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>7</v>
-      </c>
       <c r="D19" s="15"/>
     </row>
-    <row r="20" spans="2:4" ht="33">
+    <row r="20" spans="2:4" ht="41.25" customHeight="1">
       <c r="B20" s="13" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="15"/>
     </row>
@@ -765,10 +799,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC2B221-E039-4744-899A-F9EE7AA1B986}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -776,293 +810,340 @@
     <col min="2" max="2" width="31.140625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
     <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="53.7109375" style="19" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="6"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="B5" s="6"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="49.5">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="33">
       <c r="B6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75">
+      <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" customHeight="1">
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
+        <v>46</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="69" customHeight="1">
       <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75">
+        <v>46</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1">
       <c r="B9" s="3">
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="42" customHeight="1">
       <c r="B10" s="3">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="42" customHeight="1">
       <c r="B11" s="3">
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="42" customHeight="1">
       <c r="B12" s="3">
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="42" customHeight="1">
       <c r="B13" s="3">
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="42" customHeight="1">
       <c r="B14" s="3">
         <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="42" customHeight="1">
       <c r="B15" s="3">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="42" customHeight="1">
       <c r="B16" s="3">
         <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.75">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" ht="42" customHeight="1">
       <c r="B17" s="3">
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="2:6" ht="15.75">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="2:7" ht="42" customHeight="1">
       <c r="B18" s="3">
         <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="2:6" ht="15.75">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="2:7" ht="42" customHeight="1">
       <c r="B19" s="3">
         <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="2:6" ht="15.75">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="2:7" ht="42" customHeight="1">
       <c r="B20" s="5">
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="2:6" ht="15.75">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:7" ht="42" customHeight="1">
       <c r="B21" s="3">
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.75">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:7" ht="42" customHeight="1">
       <c r="B22" s="3">
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.75">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:7" ht="42" customHeight="1">
       <c r="B23" s="3">
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="2:7" ht="42" customHeight="1">
       <c r="B24" s="3">
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="2:7" ht="42" customHeight="1">
       <c r="B25" s="3">
         <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="2:7" ht="42" customHeight="1">
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="2:7" ht="42" customHeight="1">
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1070,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A35C8D9-41C3-4754-8CCF-FA0C3C284815}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1087,7 +1168,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="6"/>
@@ -1132,39 +1213,39 @@
     </row>
     <row r="6" spans="1:9" s="17" customFormat="1" ht="16.5">
       <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B7" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="14"/>
@@ -1174,13 +1255,13 @@
     </row>
     <row r="8" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B8" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -1190,13 +1271,13 @@
     </row>
     <row r="9" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>41</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -1206,13 +1287,13 @@
     </row>
     <row r="10" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1222,13 +1303,13 @@
     </row>
     <row r="11" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B11" s="12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
@@ -1238,13 +1319,13 @@
     </row>
     <row r="12" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B12" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -1254,13 +1335,13 @@
     </row>
     <row r="13" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B13" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
@@ -1270,13 +1351,13 @@
     </row>
     <row r="14" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B14" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
@@ -1286,13 +1367,13 @@
     </row>
     <row r="15" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B15" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -1302,13 +1383,13 @@
     </row>
     <row r="16" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B16" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
@@ -1318,13 +1399,13 @@
     </row>
     <row r="17" spans="2:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B17" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
@@ -1334,13 +1415,13 @@
     </row>
     <row r="18" spans="2:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B18" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
@@ -1350,13 +1431,13 @@
     </row>
     <row r="19" spans="2:9" s="17" customFormat="1" ht="45.75" customHeight="1">
       <c r="B19" s="12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>

--- a/ArcherProject大纲.xlsx
+++ b/ArcherProject大纲.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IssShin\Narrative\Note\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A304917C-0588-4571-97B9-D0B88DC3FB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA3C8A-DD1F-4D59-8C86-469E0721472D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="975" windowWidth="18210" windowHeight="14490" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5325" yWindow="300" windowWidth="21600" windowHeight="15315" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="时间顺序" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="142">
   <si>
     <t>时间顺序</t>
   </si>
@@ -52,18 +52,12 @@
 （对应20张图片编号）</t>
   </si>
   <si>
-    <t>Extra1</t>
-  </si>
-  <si>
     <t>Extra2</t>
   </si>
   <si>
     <t>写作者</t>
   </si>
   <si>
-    <t>笔记体裁</t>
-  </si>
-  <si>
     <t>具体内容</t>
   </si>
   <si>
@@ -79,12 +73,6 @@
     <t>身份</t>
   </si>
   <si>
-    <t>背景经历</t>
-  </si>
-  <si>
-    <t>12th至24th期间的经历</t>
-  </si>
-  <si>
     <t>Ego</t>
   </si>
   <si>
@@ -124,15 +112,9 @@
     <t>女</t>
   </si>
   <si>
-    <t>后续结局（不会出现在DEMO中）</t>
-  </si>
-  <si>
     <t>相关笔记</t>
   </si>
   <si>
-    <t>态度立场</t>
-  </si>
-  <si>
     <t>Ravenford II（二世）</t>
   </si>
   <si>
@@ -167,9 +149,6 @@
   </si>
   <si>
     <t>异国出身，为该部族的族长之妻，在离开故乡的逃亡之旅中患上红色瘟疫，最终浑身出血身亡。</t>
-  </si>
-  <si>
-    <t>日记</t>
   </si>
   <si>
     <t>1542年</t>
@@ -209,13 +188,285 @@
   </si>
   <si>
     <t>以施瓦茨为首的瑞文福德学者登场，自此游戏里主要势力初次亮相。施瓦茨提到，学者需要进行有关红色瘟疫（RedDeath）的实验，而这正是大门紧闭的原因。</t>
+  </si>
+  <si>
+    <t>18th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>3：保卫室的桌子上</t>
+  </si>
+  <si>
+    <t>以Lion的口吻提到Ego（主角）的弓箭术非常高超，给出“弓箭在哪里”及“如何开门”的游玩信息。</t>
+  </si>
+  <si>
+    <t>4：弓箭练习场二楼</t>
+  </si>
+  <si>
+    <t>21th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>5：弓箭练习场二楼，4的对面</t>
+  </si>
+  <si>
+    <t>22th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>6：弓箭练习场一楼</t>
+  </si>
+  <si>
+    <t>23th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>Buck鄙视瑞文福德学者拿钱不做事，还要麻烦侍从为他们干活。按照学者们的要求，侍从们封锁了存储室，但是Buck提到“可以从窗户溜进去”的游玩信息，并表示自己要偷窥下实验内容。</t>
+  </si>
+  <si>
+    <t>城堡已经紧密封锁，但是“他们”，红色瘟疫病人依然持续出现，这让莉莉丝恐慌不已。她怀疑这些病人是从内部出现的，因而产生了逃离的想法。她提到钩爪的移动性能可以帮助逃离这里，为此希望向研究钩爪的英格威先生求助。</t>
+  </si>
+  <si>
+    <t>老仆人Reef提到库存正在减少，再这样下去只能持续十天左右。外派的侍从至今没带着食物回来，能调遣的侍从又因为某些原因越来越少。Reef决心哪怕最后只剩自己，也要与领主共进退。</t>
+  </si>
+  <si>
+    <t>7：从弓箭练习场穿过6后的另一侧一楼</t>
+  </si>
+  <si>
+    <t>16th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>笔记标题</t>
+  </si>
+  <si>
+    <t>Mysterious Shadow</t>
+  </si>
+  <si>
+    <t>It's Worth a Research</t>
+  </si>
+  <si>
+    <t>英格威被异国人带来的钩爪所吸引，他认为这件工具还有很大改良空间，并希望借此与异国人进行沟通，协助他们改善钩爪技术。</t>
+  </si>
+  <si>
+    <t>Floor Collapsed</t>
+  </si>
+  <si>
+    <t>9：8的对面二楼，AirJump旁边</t>
+  </si>
+  <si>
+    <t>8：7一侧的二楼，三个书柜一扇门的地方</t>
+  </si>
+  <si>
+    <t>城堡在漫长岁月里见证了很多历史，现在坍塌的门（游玩信息）让Reef徒增感慨，他和这座城堡都要走到尽头了。Reef会想起之前失踪的侍从，其实是他遵从领主命令去绑架的，但是侍从后来发生了什么他也不知道。Reef在最后仍为自己是领主最忠心的仆人而感到自豪。</t>
+  </si>
+  <si>
+    <t>10：从9出发来到室外跳房檐，下蹲进入暗房后右手边桌子上</t>
+  </si>
+  <si>
+    <t>Ego's Diary (II)</t>
+  </si>
+  <si>
+    <t>Ego's Diary (I)</t>
+  </si>
+  <si>
+    <t>15th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>Announcement: Mansion Closed</t>
+  </si>
+  <si>
+    <t>Guard's Memo</t>
+  </si>
+  <si>
+    <t>A Servant's Note</t>
+  </si>
+  <si>
+    <t>Why is it Happening?</t>
+  </si>
+  <si>
+    <t>Inventory List</t>
+  </si>
+  <si>
+    <t>11：从10往前走拿到Hook后荡到对面阳台，面对着外面（墙壁、障碍等）阻止主角出去的东西</t>
+  </si>
+  <si>
+    <t>Ego's Diary (III)</t>
+  </si>
+  <si>
+    <t>12：有一扇可破坏窗户的室内，再往上走可获得HookUpgrade</t>
+  </si>
+  <si>
+    <t>Behavior Observation Log</t>
+  </si>
+  <si>
+    <t>14th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>13：12往前走，获得HookUpgrade处的窗户边</t>
+  </si>
+  <si>
+    <t>17th Year of the Reign of Ravenford II</t>
+  </si>
+  <si>
+    <t>Ellis's Diary (I)</t>
+  </si>
+  <si>
+    <t>14：从13处荡过来之后右边的书柜顶端</t>
+  </si>
+  <si>
+    <t>The Origin of Red Death Experiment</t>
+  </si>
+  <si>
+    <t>Schwartz</t>
+  </si>
+  <si>
+    <t>15：14往前走的一个很小的卧室</t>
+  </si>
+  <si>
+    <t>Out of Control</t>
+  </si>
+  <si>
+    <t>16：15打破木栏后落下，在一个向阳卧室的桌子上</t>
+  </si>
+  <si>
+    <t>Ellis's Diary (II)</t>
+  </si>
+  <si>
+    <t>17：拿到绳索伸缩后从洞里荡进去，梯子旁边的书架上</t>
+  </si>
+  <si>
+    <t>A letter to Lacey</t>
+  </si>
+  <si>
+    <t>18：通关前像特务一样吊在天花板上的地方</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Minute of a Secret Meeting</t>
+  </si>
+  <si>
+    <t>19：通关点，翻出整个城堡进入下一个chapter</t>
+  </si>
+  <si>
+    <t>IT WILL BE THE END</t>
+  </si>
+  <si>
+    <t>Lord Ravenford II</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>The Cure to Red Death</t>
+  </si>
+  <si>
+    <t>extra：拿到HookUpgrade后，翻到上面的亭子处（亭子里有第三根箭）</t>
+  </si>
+  <si>
+    <t>Ego表示这条蹲下腰才能通过的道路是他去找Ellis玩的秘密路线。（和场景呼应）Ellis是异国人，自己的爸爸瑞文福德二世收养了异国人，所以使得他们成为朋友。（复读设定，加深印象）Ego不谙世事，希望有一天去外面看看。（主角设定，和下次日记呼应）</t>
+  </si>
+  <si>
+    <t>以Schwartz的口吻介绍红色瘟疫及瑞文福德学者的背景设定，并引出异国人与此事的联系。Schwartz曾利用濒死病人提取出了样本，因而走上了人体实验的道路。他认为从重灾区而来的异国人是非常有价值的研究对象。</t>
+  </si>
+  <si>
+    <t>Ego和Ellis有好几个月不再交换日记了，Ellis有些担忧，然后开始回忆起自己的过去（补充背景），接着表示因此他愿意参加学者们的实验（发展剧情）。</t>
+  </si>
+  <si>
+    <t>由于和学者们达成了协议，Shiro被要求每天写关于自身的观察日志。在第一篇也就是这一篇里，他回想起自己部族逃亡的过去（补充设定），并着重强调了自己未能拯救自己的族人和妻子Lacey。他决定和学者“合作”，某种意义上是为了救赎，但更重要的是他已经没什么可以再失去了。</t>
+  </si>
+  <si>
+    <t>Frank接到领主通知，天花板上出现的洞（游玩信息）乃是城堡年久失修所致。但是Frank知道真相：那天晚上他看到一个红色影子破墙而出。瑞文福德二世为什么在撒谎？</t>
+  </si>
+  <si>
+    <t>Ego心情沉重，因为他几周前满16岁，父亲瑞文福德二世带他出去见了真正的世界，发现和自己想象中的大径相庭。看到红色瘟疫带来的惨状后，他为自己之前的天真感到羞耻，并决心要好好考虑未来要做的事情。</t>
+  </si>
+  <si>
+    <t>以Shiro向亡妻Lacey写信的格式，来叙述Shiro立场的故事。Shiro对自己与瑞文福德学者合作甚至帮助其绑架人来做实验的行为非常自责。在他发现瑞文福德学者压根没有研发出承诺的“治愈红色瘟疫的药”时，他决定在下次进行Ellis实验时阻止一切。</t>
+  </si>
+  <si>
+    <t>记录了Shiro和瑞文福德二世之间的对话。Shiro对瑞文福德二世放出狠话，假如下次Ellis的实验还不成功，他就要瑞文福德付出代价。瑞文福德二世希望Shiro再给些时间，希望他相信实验在逐渐取得进展。（此时的瑞文福德二世并不知道Shiro和Shwartz的意图）</t>
+  </si>
+  <si>
+    <t>Schwartz在这里写下了实验的真相。学者们从一开始研发的就不是治愈红色瘟疫的药，而是利用它加强人类的药。服用了这种药再感染红色瘟疫，人不会出血而死，而会变成拥有超强力量但失去神智的“怪物”。Schwartz鄙夷瑞文福德二世希望拯救所有人民的愿望，决定在试验成功后以此为筹码要挟瑞文福德二世交出统治权。</t>
+  </si>
+  <si>
+    <t>内容暂定，应该会写Schwartz在表面上的实验记录，不会透露药的真相</t>
+  </si>
+  <si>
+    <t>领主的亲手笔记，袒露了他所有的心声和真正的目标。在父亲死后，治理领地和对抗瘟疫的重担都落在他身上，他发自内心地觉得疲惫不堪，但又觉得自己有义务战胜这些问题，毕竟他不愿意把一片满目疮痍的土地交给自己的儿子，就像他爸当年做的一样。领主虽然认为学者们的研究方法有些不人道，但这是现在唯一的胜利希望，他不顾一切地，哪怕抵上自己也希望研发出治愈红色瘟疫的方法。</t>
+  </si>
+  <si>
+    <t>extra2：最后通关地点的屋顶上</t>
+  </si>
+  <si>
+    <t>Yngwie的第二篇笔记，此时他已经和异国人成为了朋友，而他的同事学者们却在利用异国人进行试验。身为学者之一的Yngwie清楚意识到试验的危险性，他无法认同自己同事的做法，于是准备逃出去，带着部分愿意和他走的异国人以及一名请求帮助的女仆Lilith。</t>
+  </si>
+  <si>
+    <t>16
+考虑如何把调整长度的事情放进去</t>
+  </si>
+  <si>
+    <t>13
+内容稍微修改，从调整长度变成了勾弓箭</t>
+  </si>
+  <si>
+    <t>Ellis提到昨天和Ego用升级过的钩爪整整训练了一天，因此今天得以休息，他也有充足的时间来好好写日记。接着他介绍了写日记的原因（为下文伏笔，补充下人设），以及他对Ego的一些看法。最后提到钩爪是由一名叫Yngwie的好人学者帮忙升级的，现在钩爪可以勾在射出去的箭上。</t>
+  </si>
+  <si>
+    <t>1/3/10/11/13/16/19</t>
+  </si>
+  <si>
+    <t>1/3/10/11/13/16/17/EXTRA</t>
+  </si>
+  <si>
+    <t>1/2/6/7/9/11/18/19/EXTRA</t>
+  </si>
+  <si>
+    <t>5/15</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8/15</t>
+  </si>
+  <si>
+    <t>2/14/15/EXTRA/EXTRA2</t>
+  </si>
+  <si>
+    <t>12/17/19</t>
+  </si>
+  <si>
+    <t>12/17</t>
+  </si>
+  <si>
+    <t>瑞文福德二世收留Shiro的异国人部族</t>
+  </si>
+  <si>
+    <t>最后一场实验——Ellis的实验</t>
+  </si>
+  <si>
+    <t>实验结果失控，城堡人死光or走光，Ego一人醒来，想要弄清楚周围发生了什么</t>
+  </si>
+  <si>
+    <t>红色瘟疫爆发，时任领主瑞文福德一世开始抗疫</t>
+  </si>
+  <si>
+    <t>瑞文福德一世死去，瑞文福德二世继位，继续治理瘟疫</t>
+  </si>
+  <si>
+    <t>（尚未完成）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,14 +503,36 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -286,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -309,12 +582,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,17 +679,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -347,7 +694,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,26 +721,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -658,18 +1047,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="45" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="82.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -699,98 +1088,94 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>1512</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="15"/>
+      <c r="C7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>1518</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="15"/>
+      <c r="C8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>1530</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="15"/>
+      <c r="C9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B10" s="12"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B11" s="12"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="B11" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B12" s="12"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
     </row>
     <row r="13" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B14" s="12"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B15" s="12"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="41.25" customHeight="1">
-      <c r="B16" s="12"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="2:4" ht="41.25" customHeight="1">
-      <c r="B17" s="12"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="2:4" ht="41.25" customHeight="1">
-      <c r="B18" s="12"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="2:4" ht="41.25" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="B16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="2:4" ht="41.25" customHeight="1">
-      <c r="B20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="15"/>
-    </row>
+      <c r="D16" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" ht="41.25" customHeight="1"/>
+    <row r="18" ht="41.25" customHeight="1"/>
+    <row r="19" ht="41.25" customHeight="1"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B3"/>
+    <mergeCell ref="B11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -801,18 +1186,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC2B221-E039-4744-899A-F9EE7AA1B986}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="6" width="53.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" customWidth="1"/>
+    <col min="4" max="5" width="44.28515625" customWidth="1"/>
+    <col min="6" max="6" width="91.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="47" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -839,304 +1223,452 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="6"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="6"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="33">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" customHeight="1">
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="69" customHeight="1">
+      <c r="B8" s="17">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42" customHeight="1">
+      <c r="B9" s="17">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="63" customHeight="1">
+      <c r="B10" s="17">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" customHeight="1">
+      <c r="B11" s="17">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="55.5" customHeight="1">
+      <c r="B12" s="17">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="56.25" customHeight="1">
+      <c r="B13" s="17">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="48" customHeight="1">
+      <c r="B14" s="17">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="93.75" customHeight="1">
+      <c r="B15" s="17">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="79.5" customHeight="1">
+      <c r="B16" s="17">
         <v>10</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="C16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="58.5" customHeight="1">
+      <c r="B17" s="17">
         <v>11</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51" customHeight="1">
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="93" customHeight="1">
+      <c r="B18" s="17">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="78" customHeight="1">
+      <c r="B19" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="72.75" customHeight="1">
+      <c r="B20" s="18">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="86.25" customHeight="1">
+      <c r="B21" s="17">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="69.75" customHeight="1">
+      <c r="B22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="60.75" customHeight="1">
+      <c r="B23" s="17">
+        <v>17</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="65.25" customHeight="1">
+      <c r="B24" s="17">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="69" customHeight="1">
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1">
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" ht="42" customHeight="1">
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="42" customHeight="1">
-      <c r="B11" s="3">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" ht="42" customHeight="1">
-      <c r="B12" s="3">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" ht="42" customHeight="1">
-      <c r="B13" s="3">
+      <c r="C24" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="112.5" customHeight="1">
+      <c r="B25" s="17">
+        <v>19</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="42" customHeight="1">
+      <c r="B26" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="90.75" customHeight="1">
+      <c r="B27" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1">
-      <c r="B14" s="3">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" ht="42" customHeight="1">
-      <c r="B15" s="3">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="42" customHeight="1">
-      <c r="B16" s="3">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" ht="42" customHeight="1">
-      <c r="B17" s="3">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" ht="42" customHeight="1">
-      <c r="B18" s="3">
-        <v>12</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" ht="42" customHeight="1">
-      <c r="B19" s="3">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7" ht="42" customHeight="1">
-      <c r="B20" s="5">
-        <v>14</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" ht="42" customHeight="1">
-      <c r="B21" s="3">
-        <v>15</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-    </row>
-    <row r="22" spans="2:7" ht="42" customHeight="1">
-      <c r="B22" s="3">
-        <v>16</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="2:7" ht="42" customHeight="1">
-      <c r="B23" s="3">
-        <v>17</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="2:7" ht="42" customHeight="1">
-      <c r="B24" s="3">
-        <v>18</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="2:7" ht="42" customHeight="1">
-      <c r="B25" s="3">
-        <v>19</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="2:7" ht="42" customHeight="1">
-      <c r="B26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="2:7" ht="42" customHeight="1">
-      <c r="B27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1149,309 +1681,250 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A35C8D9-41C3-4754-8CCF-FA0C3C284815}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="71.28515625" style="19" customWidth="1"/>
-    <col min="5" max="6" width="39.85546875" customWidth="1"/>
-    <col min="7" max="7" width="67.42578125" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="71.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="C1" s="5"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="C2" s="5"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="21"/>
       <c r="B3" s="21"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" s="17" customFormat="1" ht="16.5">
+      <c r="C3" s="5"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" s="13" customFormat="1" ht="16.5">
       <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="C11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B7" s="12" t="s">
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="C13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" s="13" customFormat="1" ht="45.75" customHeight="1">
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B13" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="2:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="2:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="2:9" s="17" customFormat="1" ht="45.75" customHeight="1">
-      <c r="B19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="E19" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
